--- a/clinicr-import/src/files/invalid_patients.xlsx
+++ b/clinicr-import/src/files/invalid_patients.xlsx
@@ -33,12 +33,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -402,13 +402,974 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Mobile No</v>
+      </c>
+      <c r="B1" t="str">
+        <v>History Date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Category</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Item Name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Doctor Name</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Email</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>01015357456</v>
+      </c>
+      <c r="B2">
+        <v>44137</v>
+      </c>
+      <c r="C2" t="str">
+        <v>DEKA Laser Hair Removal</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Deka_Under Arms</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F2" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>01090786784</v>
+      </c>
+      <c r="B3">
+        <v>44168</v>
+      </c>
+      <c r="C3" t="str">
+        <v>DEKA Laser Hair Removal</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Deka_Half Arms</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F3" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>01018181418</v>
+      </c>
+      <c r="B4">
+        <v>44157</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Visit</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Visit</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F4" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>01094060402</v>
+      </c>
+      <c r="B5">
+        <v>44193</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D5" t="str">
+        <v xml:space="preserve">Melanin Face </v>
+      </c>
+      <c r="E5" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F5" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>01032985550</v>
+      </c>
+      <c r="B6">
+        <v>44198</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D6" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+      <c r="E6" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F6" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>01202736399</v>
+      </c>
+      <c r="B7">
+        <v>44182</v>
+      </c>
+      <c r="C7" t="str">
+        <v>DEKA Laser Hair Removal</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Deka_Bikini</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F7" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>01280408115</v>
+      </c>
+      <c r="B8">
+        <v>44192</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Melanin Bikini</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F8" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>01208972606</v>
+      </c>
+      <c r="B9">
+        <v>44206</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Lumix Post</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F9" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>01222325825</v>
+      </c>
+      <c r="B10">
+        <v>44156</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Visit</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Visit</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F10" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>01011469041</v>
+      </c>
+      <c r="B11">
+        <v>44247</v>
+      </c>
+      <c r="C11" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D11" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F11" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>01211647453</v>
+      </c>
+      <c r="B12">
+        <v>44255</v>
+      </c>
+      <c r="C12" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D12" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F12" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>01202713567</v>
+      </c>
+      <c r="B13">
+        <v>44256</v>
+      </c>
+      <c r="C13" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D13" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F13" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>01033443126</v>
+      </c>
+      <c r="B14">
+        <v>44275</v>
+      </c>
+      <c r="C14" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D14" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F14" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>01099040408</v>
+      </c>
+      <c r="B15">
+        <v>44280</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D15" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+      <c r="E15" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F15" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>01272636473</v>
+      </c>
+      <c r="B16">
+        <v>44300</v>
+      </c>
+      <c r="C16" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D16" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F16" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>01270404442</v>
+      </c>
+      <c r="B17">
+        <v>44237</v>
+      </c>
+      <c r="C17" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D17" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F17" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>01002908388</v>
+      </c>
+      <c r="B18">
+        <v>44243</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D18" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+      <c r="E18" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F18" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>01140165978</v>
+      </c>
+      <c r="B19">
+        <v>44265</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D19" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+      <c r="E19" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F19" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>01008282894</v>
+      </c>
+      <c r="B20">
+        <v>44251</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D20" t="str">
+        <v xml:space="preserve">Melanin Face </v>
+      </c>
+      <c r="E20" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F20" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>01010992176</v>
+      </c>
+      <c r="B21">
+        <v>44272</v>
+      </c>
+      <c r="C21" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D21" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F21" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>01122480002</v>
+      </c>
+      <c r="B22">
+        <v>44311</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Innotox</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F22" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>01280035022</v>
+      </c>
+      <c r="B23">
+        <v>44319</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Innotox</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F23" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>01002300713</v>
+      </c>
+      <c r="B24">
+        <v>44313</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Innotox</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F24" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>01227462260</v>
+      </c>
+      <c r="B25">
+        <v>44335</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D25" t="str">
+        <v xml:space="preserve">Chemical Peeling Face Area </v>
+      </c>
+      <c r="E25" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F25" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>01008237210</v>
+      </c>
+      <c r="B26">
+        <v>44392</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Innotox</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F26" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>01206033006</v>
+      </c>
+      <c r="B27">
+        <v>44402</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Innotox</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F27" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>01110998550</v>
+      </c>
+      <c r="B28">
+        <v>44422</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D28" t="str">
+        <v xml:space="preserve">Chemical Peeling Face Area </v>
+      </c>
+      <c r="E28" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F28" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>01222835977</v>
+      </c>
+      <c r="B29">
+        <v>44432</v>
+      </c>
+      <c r="C29" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D29" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F29" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>01223807062</v>
+      </c>
+      <c r="B30">
+        <v>44423</v>
+      </c>
+      <c r="C30" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D30" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F30" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>01022733814</v>
+      </c>
+      <c r="B31">
+        <v>44436</v>
+      </c>
+      <c r="C31" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="D31" t="str">
+        <v>Candela_Full.Arms</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F31" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>01126369866</v>
+      </c>
+      <c r="B32">
+        <v>44499</v>
+      </c>
+      <c r="C32" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="D32" t="str">
+        <v>Candela_Half.Arms</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F32" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>01094905706</v>
+      </c>
+      <c r="B33">
+        <v>44508</v>
+      </c>
+      <c r="C33" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D33" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F33" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>01227632749</v>
+      </c>
+      <c r="B34">
+        <v>44513</v>
+      </c>
+      <c r="C34" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="D34" t="str">
+        <v>Candela_Half.Arms</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F34" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>01280091815</v>
+      </c>
+      <c r="B35">
+        <v>44515</v>
+      </c>
+      <c r="C35" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D35" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F35" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>01006462641</v>
+      </c>
+      <c r="B36">
+        <v>44539</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="D36" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+      <c r="E36" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F36" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>01002372923</v>
+      </c>
+      <c r="B37">
+        <v>44552</v>
+      </c>
+      <c r="C37" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="D37" t="str">
+        <v>Candela_Half.Arms</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F37" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>01092921632</v>
+      </c>
+      <c r="B38">
+        <v>44558</v>
+      </c>
+      <c r="C38" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D38" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F38" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>01050015513</v>
+      </c>
+      <c r="B39">
+        <v>44522</v>
+      </c>
+      <c r="C39" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="D39" t="str">
+        <v>Candela_Face</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F39" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>01021215582</v>
+      </c>
+      <c r="B40">
+        <v>44616</v>
+      </c>
+      <c r="C40" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D40" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F40" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>01000690064</v>
+      </c>
+      <c r="B41">
+        <v>44618</v>
+      </c>
+      <c r="C41" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="D41" t="str">
+        <v>Candela_Under.Arm</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F41" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>01000109888</v>
+      </c>
+      <c r="B42">
+        <v>44620</v>
+      </c>
+      <c r="C42" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D42" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F42" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>01008398283</v>
+      </c>
+      <c r="B43">
+        <v>44688</v>
+      </c>
+      <c r="C43" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D43" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F43" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>01009352222</v>
+      </c>
+      <c r="B44">
+        <v>44758</v>
+      </c>
+      <c r="C44" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D44" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F44" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>01124655565</v>
+      </c>
+      <c r="B45">
+        <v>44787</v>
+      </c>
+      <c r="C45" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D45" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F45" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>01151707180</v>
+      </c>
+      <c r="B46">
+        <v>44810</v>
+      </c>
+      <c r="C46" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D46" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F46" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>01203939746</v>
+      </c>
+      <c r="B47">
+        <v>44840</v>
+      </c>
+      <c r="C47" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D47" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F47" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>01001463666</v>
+      </c>
+      <c r="B48">
+        <v>44840</v>
+      </c>
+      <c r="C48" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="D48" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F48" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F48"/>
   </ignoredErrors>
 </worksheet>
 </file>